--- a/xls_files/INPUT_DATA_EXAMPLE.xlsx
+++ b/xls_files/INPUT_DATA_EXAMPLE.xlsx
@@ -119,15 +119,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>description</t>
   </si>
   <si>
     <t>manufacturer</t>
-  </si>
-  <si>
-    <t>AROMA TDX-N1</t>
   </si>
   <si>
     <t>ООО «Мьюзик лайн» 127474, РФ, г. Москва,
@@ -155,9 +152,6 @@
 Danshui town, Huiyang District, Huizhou City, Guangdong, 516200</t>
   </si>
   <si>
-    <t>Aroma</t>
-  </si>
-  <si>
     <t>6959556904536</t>
   </si>
   <si>
@@ -198,13 +192,22 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>https://errors.pydantic.dev/2.11/v/value_error</t>
+  </si>
+  <si>
+    <t>bee</t>
+  </si>
+  <si>
+    <t>bee TDX-N1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +272,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -332,7 +343,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -343,8 +354,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -381,8 +393,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Обычный 3" xfId="1"/>
@@ -688,84 +704,82 @@
   <sheetData>
     <row r="1" spans="1:15" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="O1" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="10">
         <v>3</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="L2" s="8">
         <v>1</v>
@@ -774,8 +788,8 @@
         <v>1</v>
       </c>
       <c r="N2" s="8"/>
-      <c r="O2" s="8">
-        <v>1</v>
+      <c r="O2" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -792,8 +806,11 @@
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/xls_files/INPUT_DATA_EXAMPLE.xlsx
+++ b/xls_files/INPUT_DATA_EXAMPLE.xlsx
@@ -685,7 +685,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xls_files/INPUT_DATA_EXAMPLE.xlsx
+++ b/xls_files/INPUT_DATA_EXAMPLE.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>description</t>
   </si>
@@ -194,13 +194,22 @@
     <t>category</t>
   </si>
   <si>
-    <t>https://errors.pydantic.dev/2.11/v/value_error</t>
-  </si>
-  <si>
     <t>bee</t>
   </si>
   <si>
     <t>bee TDX-N1</t>
+  </si>
+  <si>
+    <t>https://promanual.ru/instruments/aroma/</t>
+  </si>
+  <si>
+    <t>flight</t>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+  </si>
+  <si>
+    <t>asdfasdfasdfas</t>
   </si>
 </sst>
 </file>
@@ -685,7 +694,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,10 +760,10 @@
     </row>
     <row r="2" spans="1:15" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -784,17 +793,50 @@
       <c r="L2" s="8">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="N2" s="8">
         <v>1</v>
       </c>
-      <c r="N2" s="8"/>
       <c r="O2" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+    <row r="3" spans="1:15" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G4" s="3"/>
@@ -802,15 +844,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" sqref="A2:A3">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>